--- a/DataTrain_Week2.xlsx
+++ b/DataTrain_Week2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Open\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{140BA81A-DD05-4171-BF83-3C4E25784D8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{754CEA50-95C3-4E8D-AAAE-B236C38B31D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="65">
   <si>
     <t>Linear regression seeks to estabish the relationship between datasets of two variables</t>
   </si>
@@ -80,9 +80,6 @@
     <t>Variable assignment</t>
   </si>
   <si>
-    <t>Variable Types</t>
-  </si>
-  <si>
     <t>Type conversion</t>
   </si>
   <si>
@@ -120,13 +117,154 @@
   </si>
   <si>
     <t>Brief Description of Linear and Logistics Regression</t>
+  </si>
+  <si>
+    <t>Week2 Questions</t>
+  </si>
+  <si>
+    <t>1. What is an expression?</t>
+  </si>
+  <si>
+    <t>2. What is a syntax error?</t>
+  </si>
+  <si>
+    <t>3. What is PEP8?</t>
+  </si>
+  <si>
+    <t>4. What does a linter do?</t>
+  </si>
+  <si>
+    <t>5. What is the result of this expression: “*” * 10</t>
+  </si>
+  <si>
+    <t>Basics</t>
+  </si>
+  <si>
+    <t>Primitive Types</t>
+  </si>
+  <si>
+    <t>1. What is a variable?</t>
+  </si>
+  <si>
+    <t>2. What are the primitive built-in types in Python?</t>
+  </si>
+  <si>
+    <t>3. When should we use “”” (tripe quotes) to define strings?</t>
+  </si>
+  <si>
+    <t>4. Assuming (name = “John Smith”), what does name[1] return?</t>
+  </si>
+  <si>
+    <t>5. What about name[-2]?</t>
+  </si>
+  <si>
+    <t>6. What about name[1:-1]?</t>
+  </si>
+  <si>
+    <t>7. How to get the length of name?</t>
+  </si>
+  <si>
+    <t>8. What are the escape sequences in Python?</t>
+  </si>
+  <si>
+    <t>An expression is a combination of variables, values, operations and functions that evaluates to a single value</t>
+  </si>
+  <si>
+    <t>Syntax errors are mistakes in the source code of a programming or coding language entered by the programmer e.g spelling or punctuation errors, incorrect labels, failure to declare a label before using it in a statement</t>
+  </si>
+  <si>
+    <t>A document that provides guidelines and best practices on python coding, comprises the standard library in the main python distibution</t>
+  </si>
+  <si>
+    <t>A linter is a tool used for analysing source code to flag programming erros, bugs, stylistic errors and susspicious constructs</t>
+  </si>
+  <si>
+    <t>A variable is used to assign or reference a value such that when you call up the variable, the value is displayed</t>
+  </si>
+  <si>
+    <t>Variable Types: intergers, floats, boolean and strings</t>
+  </si>
+  <si>
+    <t>integers, floats, boolean and string</t>
+  </si>
+  <si>
+    <t>Used to assign strings with multiple lines.</t>
+  </si>
+  <si>
+    <t>\newline ;  \\ ;  \'; \";  \a; \b; \f; \n;  \r; \t</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>John Smith</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        **********</t>
+  </si>
+  <si>
+    <r>
+      <t>9. What is the result of f</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>“{2+2}+{10%3}”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>10. Given (name = “john smith”), what will </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>name.title()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> return?</t>
+    </r>
+  </si>
+  <si>
+    <t>Week2 Answers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ohn Smit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -140,17 +278,69 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="14"/>
+      <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF545454"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Lato"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="10">
@@ -209,7 +399,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -224,50 +414,98 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -552,7 +790,7 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9.08984375" customWidth="1"/>
     <col min="2" max="2" width="106.54296875" customWidth="1"/>
@@ -560,22 +798,22 @@
     <col min="7" max="11" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="15"/>
-      <c r="B1" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-    </row>
-    <row r="2" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" s="2" customFormat="1" ht="14.5">
+      <c r="A1" s="4"/>
+      <c r="B1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+    </row>
+    <row r="2" spans="1:11" ht="14.5">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -592,7 +830,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="14.5">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -609,7 +847,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="14.5">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -626,7 +864,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="14.5">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -643,7 +881,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="14.5">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -660,7 +898,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="14.5">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -677,7 +915,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="14.25" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -694,7 +932,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="14.5">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -711,7 +949,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="14.5">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -728,7 +966,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" ht="14.5">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -745,7 +983,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" ht="14.5">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -762,7 +1000,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" ht="14.5">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -775,7 +1013,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" ht="14.5">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -788,7 +1026,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" ht="14.5">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -801,7 +1039,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" ht="14.5">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -814,7 +1052,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" ht="14.5">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -827,7 +1065,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" ht="14.5">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -840,7 +1078,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" ht="14.5">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -853,7 +1091,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" ht="14.5">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -866,7 +1104,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" ht="15.75" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -879,7 +1117,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" ht="15.75" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -892,7 +1130,7 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" ht="15.75" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -905,7 +1143,7 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" ht="15.75" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -918,7 +1156,7 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" ht="15.75" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -931,7 +1169,7 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" ht="15.75" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -944,7 +1182,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" ht="15.75" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -957,7 +1195,7 @@
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" ht="15.75" customHeight="1">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -970,7 +1208,7 @@
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
     </row>
-    <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" ht="15.75" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -983,7 +1221,7 @@
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
     </row>
-    <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" ht="15.75" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -996,7 +1234,7 @@
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
-    <row r="31" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" ht="15.75" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1009,7 +1247,7 @@
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
     </row>
-    <row r="32" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" ht="15.75" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1022,7 +1260,7 @@
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
     </row>
-    <row r="33" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" ht="15.75" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1035,7 +1273,7 @@
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
     </row>
-    <row r="34" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" ht="15.75" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1048,7 +1286,7 @@
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
     </row>
-    <row r="35" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" ht="15.75" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -1061,7 +1299,7 @@
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
     </row>
-    <row r="36" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" ht="15.75" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -1074,7 +1312,7 @@
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
     </row>
-    <row r="37" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" ht="15.75" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1087,7 +1325,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" ht="15.75" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1100,7 +1338,7 @@
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
     </row>
-    <row r="39" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" ht="15.75" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -1113,7 +1351,7 @@
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
     </row>
-    <row r="40" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" ht="15.75" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -1126,7 +1364,7 @@
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
     </row>
-    <row r="41" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" ht="15.75" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -1139,7 +1377,7 @@
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
     </row>
-    <row r="42" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" ht="15.75" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -1152,7 +1390,7 @@
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
     </row>
-    <row r="43" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" ht="15.75" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -1165,7 +1403,7 @@
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
     </row>
-    <row r="44" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" ht="15.75" customHeight="1">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -1178,7 +1416,7 @@
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
     </row>
-    <row r="45" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" ht="15.75" customHeight="1">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -1191,7 +1429,7 @@
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
     </row>
-    <row r="46" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" ht="15.75" customHeight="1">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -1204,7 +1442,7 @@
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
     </row>
-    <row r="47" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" ht="15.75" customHeight="1">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -1217,7 +1455,7 @@
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
     </row>
-    <row r="48" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" ht="15.75" customHeight="1">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -1230,7 +1468,7 @@
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
     </row>
-    <row r="49" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:11" ht="15.75" customHeight="1">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -1243,7 +1481,7 @@
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
     </row>
-    <row r="50" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:11" ht="15.75" customHeight="1">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -1256,7 +1494,7 @@
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
     </row>
-    <row r="51" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:11" ht="15.75" customHeight="1">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -1269,7 +1507,7 @@
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
     </row>
-    <row r="52" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:11" ht="15.75" customHeight="1">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -1282,7 +1520,7 @@
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
     </row>
-    <row r="53" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:11" ht="15.75" customHeight="1">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -1295,7 +1533,7 @@
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
     </row>
-    <row r="54" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:11" ht="15.75" customHeight="1">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -1308,7 +1546,7 @@
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
     </row>
-    <row r="55" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:11" ht="15.75" customHeight="1">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -1321,7 +1559,7 @@
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
     </row>
-    <row r="56" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:11" ht="15.75" customHeight="1">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -1334,7 +1572,7 @@
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
     </row>
-    <row r="57" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:11" ht="15.75" customHeight="1">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -1347,7 +1585,7 @@
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
     </row>
-    <row r="58" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:11" ht="15.75" customHeight="1">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -1360,7 +1598,7 @@
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
     </row>
-    <row r="59" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:11" ht="15.75" customHeight="1">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -1373,7 +1611,7 @@
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
     </row>
-    <row r="60" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:11" ht="15.75" customHeight="1">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -1386,7 +1624,7 @@
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
     </row>
-    <row r="61" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:11" ht="15.75" customHeight="1">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -1399,7 +1637,7 @@
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
     </row>
-    <row r="62" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:11" ht="15.75" customHeight="1">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -1412,7 +1650,7 @@
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
     </row>
-    <row r="63" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:11" ht="15.75" customHeight="1">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -1425,7 +1663,7 @@
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
     </row>
-    <row r="64" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:11" ht="15.75" customHeight="1">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -1438,7 +1676,7 @@
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
     </row>
-    <row r="65" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:11" ht="15.75" customHeight="1">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -1451,7 +1689,7 @@
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
     </row>
-    <row r="66" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:11" ht="15.75" customHeight="1">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -1464,7 +1702,7 @@
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
     </row>
-    <row r="67" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:11" ht="15.75" customHeight="1">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -1477,7 +1715,7 @@
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
     </row>
-    <row r="68" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:11" ht="15.75" customHeight="1">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -1490,7 +1728,7 @@
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
     </row>
-    <row r="69" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:11" ht="15.75" customHeight="1">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -1503,7 +1741,7 @@
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
     </row>
-    <row r="70" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:11" ht="15.75" customHeight="1">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -1516,7 +1754,7 @@
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
     </row>
-    <row r="71" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:11" ht="15.75" customHeight="1">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -1529,7 +1767,7 @@
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
     </row>
-    <row r="72" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:11" ht="15.75" customHeight="1">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -1542,7 +1780,7 @@
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
     </row>
-    <row r="73" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:11" ht="15.75" customHeight="1">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -1555,7 +1793,7 @@
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
     </row>
-    <row r="74" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:11" ht="15.75" customHeight="1">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -1568,7 +1806,7 @@
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
     </row>
-    <row r="75" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:11" ht="15.75" customHeight="1">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -1581,7 +1819,7 @@
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
     </row>
-    <row r="76" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:11" ht="15.75" customHeight="1">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -1594,7 +1832,7 @@
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
     </row>
-    <row r="77" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:11" ht="15.75" customHeight="1">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -1607,7 +1845,7 @@
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
     </row>
-    <row r="78" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:11" ht="15.75" customHeight="1">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -1620,7 +1858,7 @@
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
     </row>
-    <row r="79" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:11" ht="15.75" customHeight="1">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -1633,7 +1871,7 @@
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
     </row>
-    <row r="80" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:11" ht="15.75" customHeight="1">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -1646,7 +1884,7 @@
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
     </row>
-    <row r="81" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:11" ht="15.75" customHeight="1">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -1659,7 +1897,7 @@
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
     </row>
-    <row r="82" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:11" ht="15.75" customHeight="1">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -1672,7 +1910,7 @@
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
     </row>
-    <row r="83" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:11" ht="15.75" customHeight="1">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -1685,7 +1923,7 @@
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
     </row>
-    <row r="84" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:11" ht="15.75" customHeight="1">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -1698,7 +1936,7 @@
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
     </row>
-    <row r="85" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:11" ht="15.75" customHeight="1">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -1711,7 +1949,7 @@
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
     </row>
-    <row r="86" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:11" ht="15.75" customHeight="1">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -1724,7 +1962,7 @@
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
     </row>
-    <row r="87" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:11" ht="15.75" customHeight="1">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -1737,7 +1975,7 @@
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
     </row>
-    <row r="88" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:11" ht="15.75" customHeight="1">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -1750,7 +1988,7 @@
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
     </row>
-    <row r="89" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:11" ht="15.75" customHeight="1">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -1763,7 +2001,7 @@
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
     </row>
-    <row r="90" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:11" ht="15.75" customHeight="1">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -1776,7 +2014,7 @@
       <c r="J90" s="1"/>
       <c r="K90" s="1"/>
     </row>
-    <row r="91" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:11" ht="15.75" customHeight="1">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -1789,7 +2027,7 @@
       <c r="J91" s="1"/>
       <c r="K91" s="1"/>
     </row>
-    <row r="92" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:11" ht="15.75" customHeight="1">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -1802,7 +2040,7 @@
       <c r="J92" s="1"/>
       <c r="K92" s="1"/>
     </row>
-    <row r="93" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:11" ht="15.75" customHeight="1">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -1815,7 +2053,7 @@
       <c r="J93" s="1"/>
       <c r="K93" s="1"/>
     </row>
-    <row r="94" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:11" ht="15.75" customHeight="1">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -1828,7 +2066,7 @@
       <c r="J94" s="1"/>
       <c r="K94" s="1"/>
     </row>
-    <row r="95" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:11" ht="15.75" customHeight="1">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -1841,7 +2079,7 @@
       <c r="J95" s="1"/>
       <c r="K95" s="1"/>
     </row>
-    <row r="96" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:11" ht="15.75" customHeight="1">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -1854,7 +2092,7 @@
       <c r="J96" s="1"/>
       <c r="K96" s="1"/>
     </row>
-    <row r="97" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:11" ht="15.75" customHeight="1">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -1867,7 +2105,7 @@
       <c r="J97" s="1"/>
       <c r="K97" s="1"/>
     </row>
-    <row r="98" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:11" ht="15.75" customHeight="1">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -1880,7 +2118,7 @@
       <c r="J98" s="1"/>
       <c r="K98" s="1"/>
     </row>
-    <row r="99" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:11" ht="15.75" customHeight="1">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -1893,7 +2131,7 @@
       <c r="J99" s="1"/>
       <c r="K99" s="1"/>
     </row>
-    <row r="100" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:11" ht="15.75" customHeight="1">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -1917,202 +2155,342 @@
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="6.90625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="20.54296875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="3.08984375" style="6" customWidth="1"/>
-    <col min="4" max="4" width="44.1796875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="24.6328125" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.1796875" style="6" customWidth="1"/>
-    <col min="7" max="16384" width="8.7265625" style="6"/>
+    <col min="1" max="1" width="6.90625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="20.54296875" style="10" customWidth="1"/>
+    <col min="3" max="3" width="3.08984375" style="10" customWidth="1"/>
+    <col min="4" max="4" width="44.1796875" style="10" customWidth="1"/>
+    <col min="5" max="5" width="36.81640625" style="10" customWidth="1"/>
+    <col min="6" max="6" width="38.1796875" style="10" customWidth="1"/>
+    <col min="7" max="16384" width="8.7265625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6" s="6" customFormat="1" ht="31">
+      <c r="A1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="5" t="s">
+      <c r="D1" s="7"/>
+      <c r="E1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="10" t="s">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="10">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="B4" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="10">
+        <v>1</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="C5" s="10">
+        <v>2</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="11"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13">
+        <v>3</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="14"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="C7" s="10">
+        <v>4</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="11"/>
+    </row>
+    <row r="8" spans="1:6" ht="31">
+      <c r="C8" s="10">
+        <v>5</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="11"/>
+    </row>
+    <row r="9" spans="1:6" ht="62">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13">
+        <v>6</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="14" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="6">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="6">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-    </row>
-    <row r="4" spans="1:6" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="6">
-        <v>1</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C5" s="6">
-        <v>2</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="9" t="s">
+      <c r="F9" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="7"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11">
-        <v>3</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="12"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C7" s="6">
-        <v>4</v>
-      </c>
-      <c r="D7" s="7" t="s">
+    </row>
+    <row r="10" spans="1:6">
+      <c r="C10" s="10">
+        <v>7</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="7"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C8" s="6">
+      <c r="E10" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="11"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="C11" s="10">
+        <v>8</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="11"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13">
+        <v>9</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="14"/>
+    </row>
+    <row r="13" spans="1:6" ht="31">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13">
+        <v>10</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="14"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="C14" s="10">
+        <v>11</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="11"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="B16" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6" s="11" customFormat="1" ht="62">
+      <c r="D17" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="4:6" s="11" customFormat="1" ht="93">
+      <c r="D18" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6" s="11" customFormat="1" ht="62">
+      <c r="D19" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" s="17"/>
+    </row>
+    <row r="20" spans="4:6" s="11" customFormat="1" ht="62">
+      <c r="D20" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="4:6" s="11" customFormat="1" ht="31">
+      <c r="D21" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="4:6" s="11" customFormat="1">
+      <c r="D22" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="4:6" s="11" customFormat="1" ht="46.5">
+      <c r="D23" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="4:6" s="11" customFormat="1" ht="31">
+      <c r="D24" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F24" s="18"/>
+    </row>
+    <row r="25" spans="4:6" s="11" customFormat="1" ht="31">
+      <c r="D25" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="4:6" s="11" customFormat="1" ht="31">
+      <c r="D26" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="4:6" s="11" customFormat="1">
+      <c r="D27" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="4:6" s="11" customFormat="1">
+      <c r="D28" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" s="26" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="4:6" s="11" customFormat="1">
+      <c r="D29" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" s="19">
+        <v>10</v>
+      </c>
+      <c r="F29" s="20"/>
+    </row>
+    <row r="30" spans="4:6" s="11" customFormat="1" ht="31">
+      <c r="D30" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" s="22"/>
+    </row>
+    <row r="31" spans="4:6" s="11" customFormat="1">
+      <c r="D31" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="E31" s="28">
         <v>5</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="1:6" ht="58" x14ac:dyDescent="0.35">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11">
-        <v>6</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C10" s="6">
-        <v>7</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="7"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C11" s="6">
-        <v>8</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="7"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11">
-        <v>9</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="12"/>
-    </row>
-    <row r="13" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11">
-        <v>10</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="12"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C14" s="6">
-        <v>11</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="7"/>
+    </row>
+    <row r="32" spans="4:6" s="11" customFormat="1" ht="31">
+      <c r="D32" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="E32" s="24" t="s">
+        <v>59</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
